--- a/import/relations_Diagnosis_TreatmentPlan.xlsx
+++ b/import/relations_Diagnosis_TreatmentPlan.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,9 +29,6 @@
     <t>d.id</t>
   </si>
   <si>
-    <t>type(relation_diag_TP)</t>
-  </si>
-  <si>
     <t>p.processMetaDataId</t>
   </si>
   <si>
@@ -170,18 +167,6 @@
     <t>PMD_d7bea3e6-5cdc-4661-98a3-59c2a3c13a83</t>
   </si>
   <si>
-    <t>DIA_c85bca4f-9d74-40a9-bf2d-f8302d6cb16f</t>
-  </si>
-  <si>
-    <t>PMD_6857e40d-c444-4542-8c36-7a3dc62a9df5</t>
-  </si>
-  <si>
-    <t>DIA_1ee5decd-59c7-4be1-bb2a-2854988cd348</t>
-  </si>
-  <si>
-    <t>PMD_99350737-1105-494f-be5b-f096debca561</t>
-  </si>
-  <si>
     <t>DIA_51ed2014-fef2-4d2f-be5e-460a581bd2e3</t>
   </si>
   <si>
@@ -228,6 +213,21 @@
   </si>
   <si>
     <t>PMD_428bcc0f-203d-4bbb-9db3-5c367c754251</t>
+  </si>
+  <si>
+    <t>type(diag_leads_TP)</t>
+  </si>
+  <si>
+    <t>DIA_0acd4979-bc76-4f25-9d08-5315fc6bcceb</t>
+  </si>
+  <si>
+    <t>PMD_ee7b14a7-c45c-4f1e-a232-aa54cd559569</t>
+  </si>
+  <si>
+    <t>DIA_90af0f3e-9783-4449-a3d9-4d834a14a4da</t>
+  </si>
+  <si>
+    <t>PMD_9c79d8c9-78d8-4b20-b335-9111ab9d4448</t>
   </si>
 </sst>
 </file>
@@ -297,12 +297,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -310,8 +309,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -620,419 +647,387 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="3" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
